--- a/html/RIS-systemer_excel.XLSX
+++ b/html/RIS-systemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B359B-2A83-4AF6-83F8-1772E228DD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2719D32-5525-4575-BB20-B73CE57EBB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RIS_systemer">'Opdateret d. 12-05-2025'!$A$1:$F$13</definedName>
+    <definedName name="RIS_systemer">'Opdateret d. 16-05-2025'!$A$1:$F$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/RIS-systemer_excel.XLSX
+++ b/html/RIS-systemer_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2719D32-5525-4575-BB20-B73CE57EBB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13DD00B-D9D3-4B9C-ADBE-6CE4AAD03318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RIS_systemer">'Opdateret d. 16-05-2025'!$A$1:$F$13</definedName>
+    <definedName name="RIS_systemer">'Opdateret d. 02-12-2025'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Standard</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Centricity RIS/PACS (GE HealthCare)</t>
   </si>
   <si>
+    <t>Sectra (Sectra Danmark)</t>
+  </si>
+  <si>
     <t>Binær dokumenttransport</t>
   </si>
   <si>
@@ -55,13 +58,13 @@
     <t>Ikke Godkendt</t>
   </si>
   <si>
+    <t>Godkendt</t>
+  </si>
+  <si>
     <t>Negativ VANS kvittering</t>
   </si>
   <si>
     <t>CTL01 (C0130Q)</t>
-  </si>
-  <si>
-    <t>Godkendt</t>
   </si>
   <si>
     <t>Tester</t>
@@ -448,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -456,7 +459,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,236 +478,280 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/html/RIS-systemer_excel.XLSX
+++ b/html/RIS-systemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13DD00B-D9D3-4B9C-ADBE-6CE4AAD03318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22CB164-72E5-4EBC-85DB-998EBBFAF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/RIS-systemer_excel.XLSX
+++ b/html/RIS-systemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22CB164-72E5-4EBC-85DB-998EBBFAF207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDAA26E-F17F-4659-9BC9-304A8E08B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RIS_systemer">'Opdateret d. 02-12-2025'!$A$1:$G$14</definedName>
+    <definedName name="RIS_systemer">'Opdateret d. 05-12-2025'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -457,9 +457,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -588,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -714,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -734,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>

--- a/html/RIS-systemer_excel.XLSX
+++ b/html/RIS-systemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDAA26E-F17F-4659-9BC9-304A8E08B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C55A9F6-6A0D-4AB7-A99A-DBD89E28E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RIS_systemer">'Opdateret d. 05-12-2025'!$A$1:$G$14</definedName>
+    <definedName name="RIS_systemer">'Opdateret d. 19-12-2025'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -457,9 +457,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -588,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -714,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -734,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
